--- a/EL - Electrical/Autre/Carte avant/Lien mcp - 7 segements.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Lien mcp - 7 segements.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8459901-22CB-4901-87B7-D2417551FB0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,14 +109,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,15 +147,15 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>592</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1" descr="http://www.circuitstoday.com/wp-content/uploads/2016/03/7_Segment_LED_Display.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848CEE19-CA91-4469-9E11-FF57117212DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{848CEE19-CA91-4469-9E11-FF57117212DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -245,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -280,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -457,21 +456,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
@@ -480,22 +479,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +504,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
@@ -531,7 +530,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I3">
@@ -554,7 +553,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4">
@@ -577,7 +576,7 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5">
@@ -600,7 +599,7 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6">
@@ -623,7 +622,7 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I7">
@@ -646,7 +645,7 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I8">
@@ -669,7 +668,7 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I9">
@@ -683,7 +682,7 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I10">
@@ -697,7 +696,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I11">
@@ -711,7 +710,7 @@
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I12">
@@ -725,7 +724,7 @@
       <c r="G13">
         <v>3</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I13">
@@ -739,7 +738,7 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I14">
@@ -753,7 +752,7 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I15">
@@ -767,7 +766,7 @@
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I16">
@@ -781,7 +780,7 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I17">
@@ -795,7 +794,7 @@
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I18">
@@ -809,7 +808,7 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I19">

--- a/EL - Electrical/Autre/Carte avant/Lien mcp - 7 segements.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Lien mcp - 7 segements.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D00F39-D739-4308-AB23-FD31AB2B2603}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +156,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="http://www.circuitstoday.com/wp-content/uploads/2016/03/7_Segment_LED_Display.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{848CEE19-CA91-4469-9E11-FF57117212DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848CEE19-CA91-4469-9E11-FF57117212DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -456,21 +457,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
@@ -537,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -560,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -583,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -606,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -626,10 +627,10 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -649,10 +650,10 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -672,10 +673,10 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -689,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -703,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -728,10 +729,10 @@
         <v>4</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -742,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -759,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -773,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
@@ -787,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
@@ -798,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
@@ -815,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Carte avant/Lien mcp - 7 segements.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Lien mcp - 7 segements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D00F39-D739-4308-AB23-FD31AB2B2603}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C39C3-2030-4E57-8F32-7AFB35364D72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -715,10 +715,10 @@
         <v>14</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Carte avant/Lien mcp - 7 segements.xlsx
+++ b/EL - Electrical/Autre/Carte avant/Lien mcp - 7 segements.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C39C3-2030-4E57-8F32-7AFB35364D72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714F811-8A7C-47B2-B20B-BD6D2CCCB12E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>325755</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>136663</xdr:rowOff>
+      <xdr:rowOff>132853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -468,18 +468,18 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -495,7 +495,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -518,15 +518,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -541,15 +541,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -564,15 +564,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -587,15 +587,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -610,15 +610,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -633,15 +633,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -656,15 +656,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>2</v>
       </c>
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>2</v>
       </c>
@@ -721,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>3</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>3</v>
       </c>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>3</v>
       </c>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>3</v>
       </c>
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>3</v>
       </c>
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>3</v>
       </c>
@@ -820,6 +820,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C9">
+    <sortCondition ref="C3:C9"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:M1"/>
